--- a/Expenses project/Data set/Expenses analysis.xlsx
+++ b/Expenses project/Data set/Expenses analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buitraguito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630B4773-339A-9D48-B6B7-9047E83CC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D652E5C-2206-3541-B0F2-1DD369A2F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10120" yWindow="-21100" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{9B22131B-E361-4AA0-93E2-7C24DCB96813}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{9B22131B-E361-4AA0-93E2-7C24DCB96813}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense analysis" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="general raw data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'general raw data'!$C$1:$F$564</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'general raw data'!$C$1:$F$655</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="460">
   <si>
     <t>Sitio</t>
   </si>
@@ -1284,6 +1284,147 @@
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Bolsa resellable</t>
+  </si>
+  <si>
+    <t>Repuesto trapero</t>
+  </si>
+  <si>
+    <t>Leche de almendra</t>
+  </si>
+  <si>
+    <t>Filete de pechuga</t>
+  </si>
+  <si>
+    <t>Lenteja</t>
+  </si>
+  <si>
+    <t>Servilleta</t>
+  </si>
+  <si>
+    <t>Arroz integral</t>
+  </si>
+  <si>
+    <t>Filete de tilapia</t>
+  </si>
+  <si>
+    <t>Base para uñas</t>
+  </si>
+  <si>
+    <t>Liquido lavaloza</t>
+  </si>
+  <si>
+    <t>Limpiavidrios</t>
+  </si>
+  <si>
+    <t>Blanqueador</t>
+  </si>
+  <si>
+    <t>Limpiador bicarbonato</t>
+  </si>
+  <si>
+    <t>Pan perro</t>
+  </si>
+  <si>
+    <t>Banano</t>
+  </si>
+  <si>
+    <t>Bebida Nutri</t>
+  </si>
+  <si>
+    <t>Ajo Malla</t>
+  </si>
+  <si>
+    <t>Te de jengibre</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>Salchicha Zenu</t>
+  </si>
+  <si>
+    <t>Bretaña</t>
+  </si>
+  <si>
+    <t>Salas tabasco</t>
+  </si>
+  <si>
+    <t>Salsa Mexicana</t>
+  </si>
+  <si>
+    <t>Frijoles negros</t>
+  </si>
+  <si>
+    <t>Salsa de Queso</t>
+  </si>
+  <si>
+    <t>Tacos Azteca</t>
+  </si>
+  <si>
+    <t>Nachos de chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortilla </t>
+  </si>
+  <si>
+    <t>Pizza cerdo BBQ</t>
+  </si>
+  <si>
+    <t>Archies</t>
+  </si>
+  <si>
+    <t>Pizza pollo y champiñones</t>
+  </si>
+  <si>
+    <t>Perro Hawaiano</t>
+  </si>
+  <si>
+    <t>Perro Especial</t>
+  </si>
+  <si>
+    <t>El Corral</t>
+  </si>
+  <si>
+    <t>EL unico</t>
+  </si>
+  <si>
+    <t>Pasta conzazoni</t>
+  </si>
+  <si>
+    <t>Salsa de pasta blanca</t>
+  </si>
+  <si>
+    <t>Boleta VIP Martes</t>
+  </si>
+  <si>
+    <t>Ajiaco pequeño</t>
+  </si>
+  <si>
+    <t>Mondondo pequeño</t>
+  </si>
+  <si>
+    <t>Jugo de maracuya</t>
+  </si>
+  <si>
+    <t>Crema antipañalitis</t>
+  </si>
+  <si>
+    <t>Propector cepillo</t>
+  </si>
+  <si>
+    <t>Donas x 6</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Perejil liso</t>
   </si>
 </sst>
 </file>
@@ -20477,8 +20618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1406E41A-96B3-4B4A-8AE3-1A3B2EC886E6}" name="Table2" displayName="Table2" ref="A1:I564" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:I564" xr:uid="{7C22E976-88FA-4B40-9724-DF7C2D048B5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1406E41A-96B3-4B4A-8AE3-1A3B2EC886E6}" name="Table2" displayName="Table2" ref="A1:I655" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:I655" xr:uid="{7C22E976-88FA-4B40-9724-DF7C2D048B5A}"/>
   <tableColumns count="9">
     <tableColumn id="5" xr3:uid="{87CA98DC-626A-4E5C-8215-D6D508C752E9}" name="Day" dataDxfId="4">
       <calculatedColumnFormula>TEXT(Table2[[#This Row],[Date]],"DDD")</calculatedColumnFormula>
@@ -21223,7 +21364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7BEB1A-A7E5-4FEE-9C17-A0A3584D523D}">
   <dimension ref="A2:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
@@ -22041,10 +22182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22E976-88FA-4B40-9724-DF7C2D048B5A}">
-  <dimension ref="A1:J564"/>
+  <dimension ref="A1:J655"/>
   <sheetViews>
-    <sheetView topLeftCell="A525" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H564" sqref="H564"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H655" sqref="H655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39525,11 +39666,2924 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>410</v>
+        <v>142</v>
       </c>
       <c r="I564" s="3">
         <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
         <v>2900</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A565" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B565" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C565" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D565" t="s">
+        <v>341</v>
+      </c>
+      <c r="E565" s="1">
+        <v>1750</v>
+      </c>
+      <c r="F565" t="s">
+        <v>17</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>142</v>
+      </c>
+      <c r="I565" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A566" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B566" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C566" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D566" t="s">
+        <v>413</v>
+      </c>
+      <c r="E566" s="1">
+        <v>4890</v>
+      </c>
+      <c r="F566" t="s">
+        <v>17</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>142</v>
+      </c>
+      <c r="I566" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A567" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B567" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C567" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D567" t="s">
+        <v>414</v>
+      </c>
+      <c r="E567" s="1">
+        <v>5190</v>
+      </c>
+      <c r="F567" t="s">
+        <v>17</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567" t="s">
+        <v>142</v>
+      </c>
+      <c r="I567" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A568" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B568" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C568" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D568" t="s">
+        <v>16</v>
+      </c>
+      <c r="E568" s="1">
+        <v>3550</v>
+      </c>
+      <c r="F568" t="s">
+        <v>17</v>
+      </c>
+      <c r="G568">
+        <v>2</v>
+      </c>
+      <c r="H568" t="s">
+        <v>142</v>
+      </c>
+      <c r="I568" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A569" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B569" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C569" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D569" t="s">
+        <v>415</v>
+      </c>
+      <c r="E569" s="1">
+        <v>8990</v>
+      </c>
+      <c r="F569" t="s">
+        <v>17</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>142</v>
+      </c>
+      <c r="I569" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A570" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B570" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C570" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D570" t="s">
+        <v>86</v>
+      </c>
+      <c r="E570" s="1">
+        <v>17990</v>
+      </c>
+      <c r="F570" t="s">
+        <v>17</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>142</v>
+      </c>
+      <c r="I570" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>17990</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A571" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B571" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C571" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D571" t="s">
+        <v>416</v>
+      </c>
+      <c r="E571" s="1">
+        <v>16790</v>
+      </c>
+      <c r="F571" t="s">
+        <v>17</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>142</v>
+      </c>
+      <c r="I571" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>16790</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A572" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B572" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C572" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D572" t="s">
+        <v>44</v>
+      </c>
+      <c r="E572" s="1">
+        <v>7350</v>
+      </c>
+      <c r="F572" t="s">
+        <v>17</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>142</v>
+      </c>
+      <c r="I572" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A573" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B573" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C573" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D573" t="s">
+        <v>417</v>
+      </c>
+      <c r="E573" s="1">
+        <v>3150</v>
+      </c>
+      <c r="F573" t="s">
+        <v>17</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>142</v>
+      </c>
+      <c r="I573" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A574" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B574" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C574" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D574" t="s">
+        <v>418</v>
+      </c>
+      <c r="E574" s="1">
+        <v>2190</v>
+      </c>
+      <c r="F574" t="s">
+        <v>17</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>142</v>
+      </c>
+      <c r="I574" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A575" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B575" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C575" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D575" t="s">
+        <v>75</v>
+      </c>
+      <c r="E575" s="1">
+        <v>5990</v>
+      </c>
+      <c r="F575" t="s">
+        <v>17</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575" t="s">
+        <v>142</v>
+      </c>
+      <c r="I575" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A576" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B576" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C576" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D576" t="s">
+        <v>419</v>
+      </c>
+      <c r="E576" s="1">
+        <v>4300</v>
+      </c>
+      <c r="F576" t="s">
+        <v>17</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576" t="s">
+        <v>142</v>
+      </c>
+      <c r="I576" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A577" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B577" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C577" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D577" t="s">
+        <v>420</v>
+      </c>
+      <c r="E577" s="1">
+        <v>13990</v>
+      </c>
+      <c r="F577" t="s">
+        <v>17</v>
+      </c>
+      <c r="G577">
+        <v>2</v>
+      </c>
+      <c r="H577" t="s">
+        <v>142</v>
+      </c>
+      <c r="I577" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>27980</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A578" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B578" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C578" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D578" t="s">
+        <v>143</v>
+      </c>
+      <c r="E578" s="1">
+        <v>4790</v>
+      </c>
+      <c r="F578" t="s">
+        <v>17</v>
+      </c>
+      <c r="G578">
+        <v>1</v>
+      </c>
+      <c r="H578" t="s">
+        <v>142</v>
+      </c>
+      <c r="I578" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A579" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B579" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C579" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D579" t="s">
+        <v>370</v>
+      </c>
+      <c r="E579" s="1">
+        <v>7990</v>
+      </c>
+      <c r="F579" t="s">
+        <v>17</v>
+      </c>
+      <c r="G579">
+        <v>1</v>
+      </c>
+      <c r="H579" t="s">
+        <v>142</v>
+      </c>
+      <c r="I579" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A580" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B580" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C580" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D580" t="s">
+        <v>195</v>
+      </c>
+      <c r="E580" s="1">
+        <v>4490</v>
+      </c>
+      <c r="F580" t="s">
+        <v>17</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+      <c r="H580" t="s">
+        <v>142</v>
+      </c>
+      <c r="I580" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A581" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B581" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C581" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D581" t="s">
+        <v>48</v>
+      </c>
+      <c r="E581" s="1">
+        <v>12750</v>
+      </c>
+      <c r="F581" t="s">
+        <v>17</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581" t="s">
+        <v>142</v>
+      </c>
+      <c r="I581" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B582" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C582" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D582" t="s">
+        <v>21</v>
+      </c>
+      <c r="E582" s="1">
+        <v>5190</v>
+      </c>
+      <c r="F582" t="s">
+        <v>17</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582" t="s">
+        <v>142</v>
+      </c>
+      <c r="I582" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B583" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C583" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D583" t="s">
+        <v>421</v>
+      </c>
+      <c r="E583" s="1">
+        <v>5490</v>
+      </c>
+      <c r="F583" t="s">
+        <v>17</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583" t="s">
+        <v>142</v>
+      </c>
+      <c r="I583" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A584" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B584" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C584" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D584" t="s">
+        <v>72</v>
+      </c>
+      <c r="E584" s="1">
+        <v>2300</v>
+      </c>
+      <c r="F584" t="s">
+        <v>17</v>
+      </c>
+      <c r="G584">
+        <v>2</v>
+      </c>
+      <c r="H584" t="s">
+        <v>142</v>
+      </c>
+      <c r="I584" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A585" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B585" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C585" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D585" t="s">
+        <v>422</v>
+      </c>
+      <c r="E585" s="1">
+        <v>2690</v>
+      </c>
+      <c r="F585" t="s">
+        <v>17</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585" t="s">
+        <v>142</v>
+      </c>
+      <c r="I585" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A586" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B586" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C586" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D586" t="s">
+        <v>423</v>
+      </c>
+      <c r="E586" s="1">
+        <v>2250</v>
+      </c>
+      <c r="F586" t="s">
+        <v>17</v>
+      </c>
+      <c r="G586">
+        <v>1</v>
+      </c>
+      <c r="H586" t="s">
+        <v>142</v>
+      </c>
+      <c r="I586" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A587" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B587" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C587" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D587" t="s">
+        <v>424</v>
+      </c>
+      <c r="E587" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F587" t="s">
+        <v>17</v>
+      </c>
+      <c r="G587">
+        <v>1</v>
+      </c>
+      <c r="H587" t="s">
+        <v>142</v>
+      </c>
+      <c r="I587" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A588" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B588" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C588" s="7">
+        <v>45322</v>
+      </c>
+      <c r="D588" t="s">
+        <v>425</v>
+      </c>
+      <c r="E588" s="1">
+        <v>2750</v>
+      </c>
+      <c r="F588" t="s">
+        <v>17</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+      <c r="H588" t="s">
+        <v>142</v>
+      </c>
+      <c r="I588" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A589" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B589" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C589" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D589" t="s">
+        <v>426</v>
+      </c>
+      <c r="E589" s="1">
+        <v>3590</v>
+      </c>
+      <c r="F589" t="s">
+        <v>17</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+      <c r="H589" t="s">
+        <v>142</v>
+      </c>
+      <c r="I589" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A590" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B590" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C590" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D590" t="s">
+        <v>427</v>
+      </c>
+      <c r="E590" s="1">
+        <v>400</v>
+      </c>
+      <c r="F590" t="s">
+        <v>17</v>
+      </c>
+      <c r="G590">
+        <v>4</v>
+      </c>
+      <c r="H590" t="s">
+        <v>142</v>
+      </c>
+      <c r="I590" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A591" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B591" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C591" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D591" t="s">
+        <v>337</v>
+      </c>
+      <c r="E591" s="1">
+        <v>13900</v>
+      </c>
+      <c r="F591" t="s">
+        <v>17</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591" t="s">
+        <v>142</v>
+      </c>
+      <c r="I591" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A592" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B592" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C592" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D592" t="s">
+        <v>177</v>
+      </c>
+      <c r="E592" s="1">
+        <v>4990</v>
+      </c>
+      <c r="F592" t="s">
+        <v>17</v>
+      </c>
+      <c r="G592">
+        <v>1</v>
+      </c>
+      <c r="H592" t="s">
+        <v>142</v>
+      </c>
+      <c r="I592" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A593" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B593" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C593" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D593" t="s">
+        <v>21</v>
+      </c>
+      <c r="E593" s="1">
+        <v>5190</v>
+      </c>
+      <c r="F593" t="s">
+        <v>17</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593" t="s">
+        <v>142</v>
+      </c>
+      <c r="I593" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A594" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B594" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C594" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D594" t="s">
+        <v>96</v>
+      </c>
+      <c r="E594" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F594" t="s">
+        <v>17</v>
+      </c>
+      <c r="G594">
+        <v>2</v>
+      </c>
+      <c r="H594" t="s">
+        <v>142</v>
+      </c>
+      <c r="I594" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A595" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B595" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C595" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D595" t="s">
+        <v>306</v>
+      </c>
+      <c r="E595" s="1">
+        <v>4490</v>
+      </c>
+      <c r="F595" t="s">
+        <v>17</v>
+      </c>
+      <c r="G595">
+        <v>1</v>
+      </c>
+      <c r="H595" t="s">
+        <v>142</v>
+      </c>
+      <c r="I595" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A596" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B596" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C596" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D596" t="s">
+        <v>16</v>
+      </c>
+      <c r="E596" s="1">
+        <v>3550</v>
+      </c>
+      <c r="F596" t="s">
+        <v>17</v>
+      </c>
+      <c r="G596">
+        <v>3</v>
+      </c>
+      <c r="H596" t="s">
+        <v>142</v>
+      </c>
+      <c r="I596" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A597" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B597" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C597" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D597" t="s">
+        <v>428</v>
+      </c>
+      <c r="E597" s="1">
+        <v>12390</v>
+      </c>
+      <c r="F597" t="s">
+        <v>17</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597" t="s">
+        <v>142</v>
+      </c>
+      <c r="I597" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A598" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B598" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C598" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D598" t="s">
+        <v>429</v>
+      </c>
+      <c r="E598" s="1">
+        <v>1390</v>
+      </c>
+      <c r="F598" t="s">
+        <v>17</v>
+      </c>
+      <c r="G598">
+        <v>1</v>
+      </c>
+      <c r="H598" t="s">
+        <v>142</v>
+      </c>
+      <c r="I598" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A599" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B599" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C599" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D599" t="s">
+        <v>113</v>
+      </c>
+      <c r="E599" s="1">
+        <v>7990</v>
+      </c>
+      <c r="F599" t="s">
+        <v>17</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599" t="s">
+        <v>142</v>
+      </c>
+      <c r="I599" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A600" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B600" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C600" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D600" t="s">
+        <v>34</v>
+      </c>
+      <c r="E600" s="1">
+        <v>3890</v>
+      </c>
+      <c r="F600" t="s">
+        <v>17</v>
+      </c>
+      <c r="G600">
+        <v>1</v>
+      </c>
+      <c r="H600" t="s">
+        <v>142</v>
+      </c>
+      <c r="I600" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A601" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B601" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C601" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D601" t="s">
+        <v>430</v>
+      </c>
+      <c r="E601" s="1">
+        <v>3790</v>
+      </c>
+      <c r="F601" t="s">
+        <v>17</v>
+      </c>
+      <c r="G601">
+        <v>1</v>
+      </c>
+      <c r="H601" t="s">
+        <v>142</v>
+      </c>
+      <c r="I601" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A602" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B602" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C602" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D602" t="s">
+        <v>244</v>
+      </c>
+      <c r="E602" s="1">
+        <v>4990</v>
+      </c>
+      <c r="F602" t="s">
+        <v>17</v>
+      </c>
+      <c r="G602">
+        <v>1</v>
+      </c>
+      <c r="H602" t="s">
+        <v>142</v>
+      </c>
+      <c r="I602" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A603" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B603" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C603" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D603" t="s">
+        <v>89</v>
+      </c>
+      <c r="E603" s="1">
+        <v>14490</v>
+      </c>
+      <c r="F603" t="s">
+        <v>31</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603" t="s">
+        <v>142</v>
+      </c>
+      <c r="I603" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A604" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B604" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C604" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D604" t="s">
+        <v>392</v>
+      </c>
+      <c r="E604" s="1">
+        <v>5190</v>
+      </c>
+      <c r="F604" t="s">
+        <v>31</v>
+      </c>
+      <c r="G604">
+        <v>2</v>
+      </c>
+      <c r="H604" t="s">
+        <v>142</v>
+      </c>
+      <c r="I604" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A605" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B605" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C605" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D605" t="s">
+        <v>98</v>
+      </c>
+      <c r="E605" s="1">
+        <v>5090</v>
+      </c>
+      <c r="F605" t="s">
+        <v>31</v>
+      </c>
+      <c r="G605">
+        <v>1</v>
+      </c>
+      <c r="H605" t="s">
+        <v>142</v>
+      </c>
+      <c r="I605" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A606" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B606" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C606" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D606" t="s">
+        <v>123</v>
+      </c>
+      <c r="E606" s="1">
+        <v>2690</v>
+      </c>
+      <c r="F606" t="s">
+        <v>31</v>
+      </c>
+      <c r="G606">
+        <v>1</v>
+      </c>
+      <c r="H606" t="s">
+        <v>142</v>
+      </c>
+      <c r="I606" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A607" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B607" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C607" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D607" t="s">
+        <v>431</v>
+      </c>
+      <c r="E607" s="1">
+        <v>6250</v>
+      </c>
+      <c r="F607" t="s">
+        <v>31</v>
+      </c>
+      <c r="G607">
+        <v>1</v>
+      </c>
+      <c r="H607" t="s">
+        <v>142</v>
+      </c>
+      <c r="I607" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A608" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B608" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C608" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D608" t="s">
+        <v>148</v>
+      </c>
+      <c r="E608" s="1">
+        <v>2390</v>
+      </c>
+      <c r="F608" t="s">
+        <v>31</v>
+      </c>
+      <c r="G608">
+        <v>1</v>
+      </c>
+      <c r="H608" t="s">
+        <v>142</v>
+      </c>
+      <c r="I608" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A609" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B609" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C609" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D609" t="s">
+        <v>83</v>
+      </c>
+      <c r="E609" s="1">
+        <v>9908</v>
+      </c>
+      <c r="F609" t="s">
+        <v>31</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609" t="s">
+        <v>142</v>
+      </c>
+      <c r="I609" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>9908</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A610" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B610" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C610" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D610" t="s">
+        <v>432</v>
+      </c>
+      <c r="E610" s="1">
+        <v>550</v>
+      </c>
+      <c r="F610" t="s">
+        <v>31</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610" t="s">
+        <v>142</v>
+      </c>
+      <c r="I610" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A611" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B611" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C611" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D611" t="s">
+        <v>392</v>
+      </c>
+      <c r="E611" s="1">
+        <v>5190</v>
+      </c>
+      <c r="F611" t="s">
+        <v>31</v>
+      </c>
+      <c r="G611">
+        <v>2</v>
+      </c>
+      <c r="H611" t="s">
+        <v>142</v>
+      </c>
+      <c r="I611" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A612" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B612" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C612" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D612" t="s">
+        <v>362</v>
+      </c>
+      <c r="E612" s="1">
+        <v>3090</v>
+      </c>
+      <c r="F612" t="s">
+        <v>31</v>
+      </c>
+      <c r="G612">
+        <v>1</v>
+      </c>
+      <c r="H612" t="s">
+        <v>142</v>
+      </c>
+      <c r="I612" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A613" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B613" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C613" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D613" t="s">
+        <v>123</v>
+      </c>
+      <c r="E613" s="1">
+        <v>2690</v>
+      </c>
+      <c r="F613" t="s">
+        <v>31</v>
+      </c>
+      <c r="G613">
+        <v>2</v>
+      </c>
+      <c r="H613" t="s">
+        <v>142</v>
+      </c>
+      <c r="I613" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A614" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B614" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C614" s="7">
+        <v>45329</v>
+      </c>
+      <c r="D614" t="s">
+        <v>433</v>
+      </c>
+      <c r="E614" s="1">
+        <v>8790</v>
+      </c>
+      <c r="F614" t="s">
+        <v>31</v>
+      </c>
+      <c r="G614">
+        <v>1</v>
+      </c>
+      <c r="H614" t="s">
+        <v>142</v>
+      </c>
+      <c r="I614" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A615" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B615" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C615" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D615" t="s">
+        <v>41</v>
+      </c>
+      <c r="E615" s="1">
+        <v>14790</v>
+      </c>
+      <c r="F615" t="s">
+        <v>31</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615" t="s">
+        <v>142</v>
+      </c>
+      <c r="I615" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>14790</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A616" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B616" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C616" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D616" t="s">
+        <v>83</v>
+      </c>
+      <c r="E616" s="1">
+        <v>9756</v>
+      </c>
+      <c r="F616" t="s">
+        <v>31</v>
+      </c>
+      <c r="G616">
+        <v>1</v>
+      </c>
+      <c r="H616" t="s">
+        <v>142</v>
+      </c>
+      <c r="I616" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A617" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B617" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C617" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D617" t="s">
+        <v>16</v>
+      </c>
+      <c r="E617" s="1">
+        <v>5590</v>
+      </c>
+      <c r="F617" t="s">
+        <v>31</v>
+      </c>
+      <c r="G617">
+        <v>1</v>
+      </c>
+      <c r="H617" t="s">
+        <v>142</v>
+      </c>
+      <c r="I617" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A618" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B618" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C618" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D618" t="s">
+        <v>434</v>
+      </c>
+      <c r="E618" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F618" t="s">
+        <v>31</v>
+      </c>
+      <c r="G618">
+        <v>1</v>
+      </c>
+      <c r="H618" t="s">
+        <v>142</v>
+      </c>
+      <c r="I618" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A619" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B619" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C619" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D619" t="s">
+        <v>37</v>
+      </c>
+      <c r="E619" s="1">
+        <v>6590</v>
+      </c>
+      <c r="F619" t="s">
+        <v>31</v>
+      </c>
+      <c r="G619">
+        <v>2</v>
+      </c>
+      <c r="H619" t="s">
+        <v>142</v>
+      </c>
+      <c r="I619" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>13180</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A620" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B620" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C620" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D620" t="s">
+        <v>316</v>
+      </c>
+      <c r="E620" s="1">
+        <v>6090</v>
+      </c>
+      <c r="F620" t="s">
+        <v>31</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620" t="s">
+        <v>142</v>
+      </c>
+      <c r="I620" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A621" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B621" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C621" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D621" t="s">
+        <v>391</v>
+      </c>
+      <c r="E621" s="1">
+        <v>17690</v>
+      </c>
+      <c r="F621" t="s">
+        <v>31</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621" t="s">
+        <v>142</v>
+      </c>
+      <c r="I621" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>17690</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A622" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B622" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C622" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D622" t="s">
+        <v>435</v>
+      </c>
+      <c r="E622" s="1">
+        <v>15990</v>
+      </c>
+      <c r="F622" t="s">
+        <v>31</v>
+      </c>
+      <c r="G622">
+        <v>1</v>
+      </c>
+      <c r="H622" t="s">
+        <v>142</v>
+      </c>
+      <c r="I622" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A623" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B623" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C623" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D623" t="s">
+        <v>436</v>
+      </c>
+      <c r="E623" s="1">
+        <v>13990</v>
+      </c>
+      <c r="F623" t="s">
+        <v>31</v>
+      </c>
+      <c r="G623">
+        <v>1</v>
+      </c>
+      <c r="H623" t="s">
+        <v>142</v>
+      </c>
+      <c r="I623" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A624" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B624" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C624" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D624" t="s">
+        <v>437</v>
+      </c>
+      <c r="E624" s="1">
+        <v>11990</v>
+      </c>
+      <c r="F624" t="s">
+        <v>31</v>
+      </c>
+      <c r="G624">
+        <v>2</v>
+      </c>
+      <c r="H624" t="s">
+        <v>142</v>
+      </c>
+      <c r="I624" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A625" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B625" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C625" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D625" t="s">
+        <v>438</v>
+      </c>
+      <c r="E625" s="1">
+        <v>6090</v>
+      </c>
+      <c r="F625" t="s">
+        <v>31</v>
+      </c>
+      <c r="G625">
+        <v>1</v>
+      </c>
+      <c r="H625" t="s">
+        <v>142</v>
+      </c>
+      <c r="I625" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A626" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B626" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C626" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D626" t="s">
+        <v>439</v>
+      </c>
+      <c r="E626" s="1">
+        <v>21190</v>
+      </c>
+      <c r="F626" t="s">
+        <v>31</v>
+      </c>
+      <c r="G626">
+        <v>1</v>
+      </c>
+      <c r="H626" t="s">
+        <v>142</v>
+      </c>
+      <c r="I626" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>21190</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A627" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B627" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C627" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D627" t="s">
+        <v>440</v>
+      </c>
+      <c r="E627" s="1">
+        <v>8590</v>
+      </c>
+      <c r="F627" t="s">
+        <v>31</v>
+      </c>
+      <c r="G627">
+        <v>1</v>
+      </c>
+      <c r="H627" t="s">
+        <v>142</v>
+      </c>
+      <c r="I627" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A628" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B628" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C628" s="7">
+        <v>45325</v>
+      </c>
+      <c r="D628" t="s">
+        <v>441</v>
+      </c>
+      <c r="E628" s="1">
+        <v>11390</v>
+      </c>
+      <c r="F628" t="s">
+        <v>31</v>
+      </c>
+      <c r="G628">
+        <v>1</v>
+      </c>
+      <c r="H628" t="s">
+        <v>142</v>
+      </c>
+      <c r="I628" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>11390</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A629" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B629" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C629" s="7">
+        <v>45333</v>
+      </c>
+      <c r="D629" t="s">
+        <v>442</v>
+      </c>
+      <c r="E629" s="1">
+        <v>26950</v>
+      </c>
+      <c r="F629" t="s">
+        <v>443</v>
+      </c>
+      <c r="G629">
+        <v>1</v>
+      </c>
+      <c r="H629" t="s">
+        <v>171</v>
+      </c>
+      <c r="I629" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A630" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B630" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C630" s="7">
+        <v>45333</v>
+      </c>
+      <c r="D630" t="s">
+        <v>444</v>
+      </c>
+      <c r="E630" s="1">
+        <v>31450</v>
+      </c>
+      <c r="F630" t="s">
+        <v>443</v>
+      </c>
+      <c r="G630">
+        <v>1</v>
+      </c>
+      <c r="H630" t="s">
+        <v>171</v>
+      </c>
+      <c r="I630" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>31450</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A631" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B631" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C631" s="7">
+        <v>45346</v>
+      </c>
+      <c r="D631" t="s">
+        <v>445</v>
+      </c>
+      <c r="E631" s="1">
+        <v>24900</v>
+      </c>
+      <c r="F631" t="s">
+        <v>447</v>
+      </c>
+      <c r="G631">
+        <v>1</v>
+      </c>
+      <c r="H631" t="s">
+        <v>171</v>
+      </c>
+      <c r="I631" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A632" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B632" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C632" s="7">
+        <v>45346</v>
+      </c>
+      <c r="D632" t="s">
+        <v>446</v>
+      </c>
+      <c r="E632" s="1">
+        <v>33900</v>
+      </c>
+      <c r="F632" t="s">
+        <v>447</v>
+      </c>
+      <c r="G632">
+        <v>1</v>
+      </c>
+      <c r="H632" t="s">
+        <v>171</v>
+      </c>
+      <c r="I632" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A633" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B633" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C633" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D633" t="s">
+        <v>448</v>
+      </c>
+      <c r="E633" s="1">
+        <v>12900</v>
+      </c>
+      <c r="F633" t="s">
+        <v>218</v>
+      </c>
+      <c r="G633">
+        <v>1</v>
+      </c>
+      <c r="H633" t="s">
+        <v>171</v>
+      </c>
+      <c r="I633" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A634" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B634" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C634" s="7">
+        <v>45344</v>
+      </c>
+      <c r="D634" t="s">
+        <v>449</v>
+      </c>
+      <c r="E634" s="1">
+        <v>5490</v>
+      </c>
+      <c r="F634" t="s">
+        <v>31</v>
+      </c>
+      <c r="G634">
+        <v>1</v>
+      </c>
+      <c r="H634" t="s">
+        <v>142</v>
+      </c>
+      <c r="I634" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A635" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B635" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C635" s="7">
+        <v>45344</v>
+      </c>
+      <c r="D635" t="s">
+        <v>118</v>
+      </c>
+      <c r="E635" s="1">
+        <v>3290</v>
+      </c>
+      <c r="F635" t="s">
+        <v>31</v>
+      </c>
+      <c r="G635">
+        <v>1</v>
+      </c>
+      <c r="H635" t="s">
+        <v>142</v>
+      </c>
+      <c r="I635" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A636" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B636" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C636" s="7">
+        <v>45344</v>
+      </c>
+      <c r="D636" t="s">
+        <v>450</v>
+      </c>
+      <c r="E636" s="1">
+        <v>17490</v>
+      </c>
+      <c r="F636" t="s">
+        <v>31</v>
+      </c>
+      <c r="G636">
+        <v>1</v>
+      </c>
+      <c r="H636" t="s">
+        <v>142</v>
+      </c>
+      <c r="I636" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>17490</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A637" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B637" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C637" s="7">
+        <v>45344</v>
+      </c>
+      <c r="D637" t="s">
+        <v>16</v>
+      </c>
+      <c r="E637" s="1">
+        <v>5750</v>
+      </c>
+      <c r="F637" t="s">
+        <v>31</v>
+      </c>
+      <c r="G637">
+        <v>1</v>
+      </c>
+      <c r="H637" t="s">
+        <v>142</v>
+      </c>
+      <c r="I637" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A638" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B638" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C638" s="7">
+        <v>45342</v>
+      </c>
+      <c r="D638" t="s">
+        <v>451</v>
+      </c>
+      <c r="E638" s="1">
+        <v>35600</v>
+      </c>
+      <c r="F638" t="s">
+        <v>233</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638" t="s">
+        <v>234</v>
+      </c>
+      <c r="I638" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A639" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B639" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C639" s="7">
+        <v>45342</v>
+      </c>
+      <c r="D639" t="s">
+        <v>452</v>
+      </c>
+      <c r="E639" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F639" t="s">
+        <v>287</v>
+      </c>
+      <c r="G639">
+        <v>1</v>
+      </c>
+      <c r="H639" t="s">
+        <v>171</v>
+      </c>
+      <c r="I639" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A640" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B640" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C640" s="7">
+        <v>45342</v>
+      </c>
+      <c r="D640" t="s">
+        <v>453</v>
+      </c>
+      <c r="E640" s="1">
+        <v>15900</v>
+      </c>
+      <c r="F640" t="s">
+        <v>287</v>
+      </c>
+      <c r="G640">
+        <v>1</v>
+      </c>
+      <c r="H640" t="s">
+        <v>171</v>
+      </c>
+      <c r="I640" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A641" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B641" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C641" s="7">
+        <v>45342</v>
+      </c>
+      <c r="D641" t="s">
+        <v>454</v>
+      </c>
+      <c r="E641" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F641" t="s">
+        <v>287</v>
+      </c>
+      <c r="G641">
+        <v>2</v>
+      </c>
+      <c r="H641" t="s">
+        <v>171</v>
+      </c>
+      <c r="I641" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A642" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B642" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C642" s="7">
+        <v>45346</v>
+      </c>
+      <c r="D642" t="s">
+        <v>316</v>
+      </c>
+      <c r="E642" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F642" t="s">
+        <v>138</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642" t="s">
+        <v>142</v>
+      </c>
+      <c r="I642" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A643" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B643" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C643" s="7">
+        <v>45346</v>
+      </c>
+      <c r="D643" t="s">
+        <v>295</v>
+      </c>
+      <c r="E643" s="1">
+        <v>4700</v>
+      </c>
+      <c r="F643" t="s">
+        <v>138</v>
+      </c>
+      <c r="G643">
+        <v>1</v>
+      </c>
+      <c r="H643" t="s">
+        <v>142</v>
+      </c>
+      <c r="I643" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A644" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B644" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C644" s="7">
+        <v>45337</v>
+      </c>
+      <c r="D644" t="s">
+        <v>357</v>
+      </c>
+      <c r="E644" s="1">
+        <v>34150</v>
+      </c>
+      <c r="F644" t="s">
+        <v>138</v>
+      </c>
+      <c r="G644">
+        <v>1</v>
+      </c>
+      <c r="H644" t="s">
+        <v>286</v>
+      </c>
+      <c r="I644" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>34150</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A645" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B645" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C645" s="7">
+        <v>45337</v>
+      </c>
+      <c r="D645" t="s">
+        <v>455</v>
+      </c>
+      <c r="E645" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F645" t="s">
+        <v>138</v>
+      </c>
+      <c r="G645">
+        <v>1</v>
+      </c>
+      <c r="H645" t="s">
+        <v>286</v>
+      </c>
+      <c r="I645" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A646" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B646" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C646" s="7">
+        <v>45337</v>
+      </c>
+      <c r="D646" t="s">
+        <v>456</v>
+      </c>
+      <c r="E646" s="1">
+        <v>4250</v>
+      </c>
+      <c r="F646" t="s">
+        <v>138</v>
+      </c>
+      <c r="G646">
+        <v>1</v>
+      </c>
+      <c r="H646" t="s">
+        <v>286</v>
+      </c>
+      <c r="I646" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A647" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B647" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C647" s="7">
+        <v>45339</v>
+      </c>
+      <c r="D647" t="s">
+        <v>325</v>
+      </c>
+      <c r="E647" s="1">
+        <v>268700</v>
+      </c>
+      <c r="F647" t="s">
+        <v>28</v>
+      </c>
+      <c r="G647">
+        <v>1</v>
+      </c>
+      <c r="H647" t="s">
+        <v>168</v>
+      </c>
+      <c r="I647" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>268700</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A648" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B648" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C648" s="7">
+        <v>45340</v>
+      </c>
+      <c r="D648" t="s">
+        <v>83</v>
+      </c>
+      <c r="E648" s="1">
+        <v>9642</v>
+      </c>
+      <c r="F648" t="s">
+        <v>31</v>
+      </c>
+      <c r="G648">
+        <v>1</v>
+      </c>
+      <c r="H648" t="s">
+        <v>142</v>
+      </c>
+      <c r="I648" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>9642</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A649" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B649" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C649" s="7">
+        <v>45340</v>
+      </c>
+      <c r="D649" t="s">
+        <v>324</v>
+      </c>
+      <c r="E649" s="1">
+        <f>75800/2</f>
+        <v>37900</v>
+      </c>
+      <c r="F649" t="s">
+        <v>170</v>
+      </c>
+      <c r="G649">
+        <v>2</v>
+      </c>
+      <c r="H649" t="s">
+        <v>171</v>
+      </c>
+      <c r="I649" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>75800</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A650" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B650" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C650" s="7">
+        <v>45337</v>
+      </c>
+      <c r="D650" t="s">
+        <v>279</v>
+      </c>
+      <c r="E650" s="1">
+        <v>4950</v>
+      </c>
+      <c r="F650" t="s">
+        <v>102</v>
+      </c>
+      <c r="G650">
+        <v>1</v>
+      </c>
+      <c r="H650" t="s">
+        <v>171</v>
+      </c>
+      <c r="I650" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A651" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B651" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C651" s="7">
+        <v>45333</v>
+      </c>
+      <c r="D651" t="s">
+        <v>457</v>
+      </c>
+      <c r="E651" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F651" t="s">
+        <v>360</v>
+      </c>
+      <c r="G651">
+        <v>1</v>
+      </c>
+      <c r="H651" t="s">
+        <v>171</v>
+      </c>
+      <c r="I651" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A652" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B652" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C652" s="7">
+        <v>45292</v>
+      </c>
+      <c r="D652" t="s">
+        <v>316</v>
+      </c>
+      <c r="E652" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F652" t="s">
+        <v>31</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652" t="s">
+        <v>142</v>
+      </c>
+      <c r="I652" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A653" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B653" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Jan</v>
+      </c>
+      <c r="C653" s="7">
+        <v>45292</v>
+      </c>
+      <c r="D653" t="s">
+        <v>434</v>
+      </c>
+      <c r="E653" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F653" t="s">
+        <v>31</v>
+      </c>
+      <c r="G653">
+        <v>1</v>
+      </c>
+      <c r="H653" t="s">
+        <v>142</v>
+      </c>
+      <c r="I653" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A654" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B654" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C654" s="7">
+        <v>45334</v>
+      </c>
+      <c r="D654" t="s">
+        <v>458</v>
+      </c>
+      <c r="E654" s="1">
+        <v>8556</v>
+      </c>
+      <c r="F654" t="s">
+        <v>70</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654" t="s">
+        <v>142</v>
+      </c>
+      <c r="I654" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A655" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"DDD")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B655" s="7" t="str">
+        <f>TEXT(Table2[[#This Row],[Date]],"MMM")</f>
+        <v>Feb</v>
+      </c>
+      <c r="C655" s="7">
+        <v>45334</v>
+      </c>
+      <c r="D655" t="s">
+        <v>459</v>
+      </c>
+      <c r="E655" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F655" t="s">
+        <v>70</v>
+      </c>
+      <c r="G655">
+        <v>1</v>
+      </c>
+      <c r="H655" t="s">
+        <v>142</v>
+      </c>
+      <c r="I655" s="3">
+        <f>+Table2[[#This Row],[QTY]]*Table2[[#This Row],[Price]]</f>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
